--- a/medicine/Sexualité et sexologie/Gay_(homosexualité)/Gay_(homosexualité).xlsx
+++ b/medicine/Sexualité et sexologie/Gay_(homosexualité)/Gay_(homosexualité).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gay_(homosexualit%C3%A9)</t>
+          <t>Gay_(homosexualité)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un gay (ou un gai au Québec, ou encore un homo) est un homme homosexuel, c'est-à-dire qui a une attirance amoureuse ou sexuelle exclusivement pour des hommes, du point de vue du sexe ou du genre[1],[2].
-On utilise parfois au Québec l'écriture francisée gai[1]. En anglais et bien plus rarement en français, le terme gay (ou au Québec sa variante gaie[3]) peut également être employé pour désigner une personne homosexuelle en général, voire précisément une lesbienne.
+Un gay (ou un gai au Québec, ou encore un homo) est un homme homosexuel, c'est-à-dire qui a une attirance amoureuse ou sexuelle exclusivement pour des hommes, du point de vue du sexe ou du genre,.
+On utilise parfois au Québec l'écriture francisée gai. En anglais et bien plus rarement en français, le terme gay (ou au Québec sa variante gaie) peut également être employé pour désigner une personne homosexuelle en général, voire précisément une lesbienne.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gay_(homosexualit%C3%A9)</t>
+          <t>Gay_(homosexualité)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,161 +525,186 @@
           <t>Histoire du concept</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que le sexe entre hommes existe depuis aussi longtemps que le genre masculin, l'identité gay telle qu'elle est conçue aujourd'hui apparaît à l'époque moderne. Le travail le plus célèbre sur cette question est l'Histoire de la sexualité par Michel Foucault, lequel met en avant que l'idée d'une orientation homosexuelle inhérente à certaines personnes est un produit des sciences médicales du XIXe siècle qui est par la suite revendiqué par les hommes gays eux-mêmes afin d'obtenir des droits.
-Origine
-Le mot « gay » est utilisé en anglais à partir du XIIe siècle, venant du vieux français « gai ». Ce mot a été emprunté à l'occitan, et est très probablement d'origine germanique[4]. Le mot est utilisé dans la littérature des troubadours dans les expressions gaya scienza ou gai saber, et signifie « pétulant », « gai »[5]. Pour l'essentiel, le sens premier du mot est « joyeux », « sans souci », et le mot est très couramment utilisé en ce sens dans les discours et la littérature. Par exemple, l'optimisme des années 1890 est encore souvent dénommé, en anglais, « Gay Nineties ». Le titre d'un ballet français, la Gaîté parisienne (1938) de Manuel Rosenthal sur des thèmes d'Offenbach, illustre également cette connotation. Dès le XVIIe siècle, le terme gay est employé pour désigner ce qui a trait aux distractions et plaisirs immoraux, avant d'être associé au XIXe siècle à la prostitution[6].
-Dans le monde anglophone
-À son origine jusqu'au milieu du XXe siècle, gay est essentiellement utilisé en référence au fait d'être « insouciant », « heureux » ou « lumineux et voyant ». L'historien George Chauncey suggère que c'est cette idée d'ostensibilité et de flamboyance qui conduisit les « tantes » (fairies) à adopter ce terme dès les années 1920 aux États-Unis, tout comme sa polysémie qui en permettait un usage codé, utilisable en présence de personnes « normales » (hétérosexuelles). Dans les sous-cultures urbaines d'hommes efféminés, le mot gay était alors employé pour désigner les bars et les rues où les membres de ces communautés se retrouvaient, sans désigner les homosexuels pour autant.
-Le terme a commencé à être utilisé en référence aux relations entre personnes de même sexe en 1947, avec un usage qui remonte peut-être à 1868[4], au moment où le terme médical, homosexualité, a été inventé. Mais son usage populaire en ce sens n'existe que depuis les années 1950[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gay_(homosexualité)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gay_(homosexualit%C3%A9)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire du concept</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot « gay » est utilisé en anglais à partir du XIIe siècle, venant du vieux français « gai ». Ce mot a été emprunté à l'occitan, et est très probablement d'origine germanique. Le mot est utilisé dans la littérature des troubadours dans les expressions gaya scienza ou gai saber, et signifie « pétulant », « gai ». Pour l'essentiel, le sens premier du mot est « joyeux », « sans souci », et le mot est très couramment utilisé en ce sens dans les discours et la littérature. Par exemple, l'optimisme des années 1890 est encore souvent dénommé, en anglais, « Gay Nineties ». Le titre d'un ballet français, la Gaîté parisienne (1938) de Manuel Rosenthal sur des thèmes d'Offenbach, illustre également cette connotation. Dès le XVIIe siècle, le terme gay est employé pour désigner ce qui a trait aux distractions et plaisirs immoraux, avant d'être associé au XIXe siècle à la prostitution.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gay_(homosexualité)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gay_(homosexualit%C3%A9)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire du concept</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dans le monde anglophone</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À son origine jusqu'au milieu du XXe siècle, gay est essentiellement utilisé en référence au fait d'être « insouciant », « heureux » ou « lumineux et voyant ». L'historien George Chauncey suggère que c'est cette idée d'ostensibilité et de flamboyance qui conduisit les « tantes » (fairies) à adopter ce terme dès les années 1920 aux États-Unis, tout comme sa polysémie qui en permettait un usage codé, utilisable en présence de personnes « normales » (hétérosexuelles). Dans les sous-cultures urbaines d'hommes efféminés, le mot gay était alors employé pour désigner les bars et les rues où les membres de ces communautés se retrouvaient, sans désigner les homosexuels pour autant.
+Le terme a commencé à être utilisé en référence aux relations entre personnes de même sexe en 1947, avec un usage qui remonte peut-être à 1868, au moment où le terme médical, homosexualité, a été inventé. Mais son usage populaire en ce sens n'existe que depuis les années 1950.
 Progressivement, « gay » en est venu à être utilisé comme adjectif et parfois comme nom, en rapport aux personnes, aux pratiques et à la culture associées à ladite l'homosexualité. Cette signification apparaît aux États-Unis dans les années 1970, à la suite des émeutes de 1969 à New York, à travers les premières tenues de Gay Pride (la première fut Christopher Street Liberation Parade en 1970, coordonnée par Brenda Howard), qui visaient une pleine acceptation des homosexuels et non pas une tolérance mêlée d'hypocrisie. Une étymologie non avérée postule que les initiales GAY du slogan « We are Good As You ! » sont à l'origine du mot, mais il s'agit en réalité d'un rétroacronyme[réf. souhaitée].
-À la fin du XXe siècle, le mot « gay » est d'usage courant en anglais pour désigner ce qui a trait aux personnes attirées par des personnes de même sexe et à l'univers qui s'y rattache (sexuel, social, culturel)[7],[8]. Le langage familier le distingue de « straight », un adjectif qui possède d'autres sens en anglais (conventionnel, franc, direct), qui lui confèrent donc un caractère plus normatif que son équivalent francophone, « hétéro ».
-Dans un tout autre sens, un usage argotique à caractère péjoratif du mot apparaît dans certains pays anglo-saxons dans le courant des années 2000. Au Royaume-Uni, aux États-Unis et en Australie, gay peut ainsi revêtir une connotation moqueuse, non sexuelle, équivalente à « nul » ou « stupide » (par exemple : That's so gay!)[9],[10].
-Sexualisation
-Il ne semble pas jusqu'au XXe siècle que le mot soit utilisé pour désigner spécifiquement les homosexuels, mais il avait précédemment acquis des connotations sexuelles[4].
-Le mot semble être associé à l'immoralité à partir de 1637[4] et est utilisé à la fin du XVIIe siècle avec le sens de « dépendance aux plaisirs et à la débauche »[11], et cela, par extension de la première signification du terme : « sans souci », impliquant « sans complexe au regard des contraintes morales ». Une femme « gay » est une prostituée, un homme « gay » est un homme à femmes et une maison « gay », un lupanar[4].
+À la fin du XXe siècle, le mot « gay » est d'usage courant en anglais pour désigner ce qui a trait aux personnes attirées par des personnes de même sexe et à l'univers qui s'y rattache (sexuel, social, culturel),. Le langage familier le distingue de « straight », un adjectif qui possède d'autres sens en anglais (conventionnel, franc, direct), qui lui confèrent donc un caractère plus normatif que son équivalent francophone, « hétéro ».
+Dans un tout autre sens, un usage argotique à caractère péjoratif du mot apparaît dans certains pays anglo-saxons dans le courant des années 2000. Au Royaume-Uni, aux États-Unis et en Australie, gay peut ainsi revêtir une connotation moqueuse, non sexuelle, équivalente à « nul » ou « stupide » (par exemple : That's so gay!),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gay_(homosexualité)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gay_(homosexualit%C3%A9)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire du concept</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dans le monde anglophone</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sexualisation</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ne semble pas jusqu'au XXe siècle que le mot soit utilisé pour désigner spécifiquement les homosexuels, mais il avait précédemment acquis des connotations sexuelles.
+Le mot semble être associé à l'immoralité à partir de 1637 et est utilisé à la fin du XVIIe siècle avec le sens de « dépendance aux plaisirs et à la débauche », et cela, par extension de la première signification du terme : « sans souci », impliquant « sans complexe au regard des contraintes morales ». Une femme « gay » est une prostituée, un homme « gay » est un homme à femmes et une maison « gay », un lupanar.
 L'utilisation par la langue anglaise de « gay » dans le sens d'« homosexuel » est, à l'origine, une simple extension de la connotation sexualisée du mot, en « insouciance et désinvolture », qui implique une volonté d'ignorer les mœurs sexuelles respectables ou conventionnelles.
-Cette utilisation serait documentée dès les années 1920 et il y a des indications pour une utilisation avant le XXe siècle[4], même si elle a d'abord été plus couramment utilisé pour définir des modes de vie hétérosexuelle sans contrainte, comme dans l'expression : « gay Lothario »[12] ou dans le titre du livre (et du film) The Gay Falcon (1941), qui concerne un détective, homme à femmes, dont le prénom est Gay. Au milieu du XXe siècle, un célibataire d'âge moyen peut être décrit comme « gay », sans aucune implication de l'homosexualité.
+Cette utilisation serait documentée dès les années 1920 et il y a des indications pour une utilisation avant le XXe siècle, même si elle a d'abord été plus couramment utilisé pour définir des modes de vie hétérosexuelle sans contrainte, comme dans l'expression : « gay Lothario » ou dans le titre du livre (et du film) The Gay Falcon (1941), qui concerne un détective, homme à femmes, dont le prénom est Gay. Au milieu du XXe siècle, un célibataire d'âge moyen peut être décrit comme « gay », sans aucune implication de l'homosexualité.
 Cet usage peut s'appliquer aux femmes également. La bande dessinée britannique Jane est publié pour la première fois dans les années 1930 et décrit les aventures de Jane Gay. Loin de l'homosexualité, il fait référence à un style de vie libre avec beaucoup d'amants.
-Alternative à « homosexuel »
-En 1929, la comédie musicale Bitter Sweet de Noël Coward contient une autre utilisation du mot dans un contexte qui implique fortement l'homosexualité. Dans la chanson Green Carnation (« L'Œillet vert »), dont le titre fait référence au célèbre œillet d'Oscar Wilde dont l'homosexualité avait défrayé la chronique, quatre dandys des années 1890 déclarent :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gay_(homosexualité)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gay_(homosexualit%C3%A9)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire du concept</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dans le monde anglophone</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Alternative à « homosexuel »</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1929, la comédie musicale Bitter Sweet de Noël Coward contient une autre utilisation du mot dans un contexte qui implique fortement l'homosexualité. Dans la chanson Green Carnation (« L'Œillet vert »), dont le titre fait référence au célèbre œillet d'Oscar Wilde dont l'homosexualité avait défrayé la chronique, quatre dandys des années 1890 déclarent :
         « Pretty boys, witty boys,You may sneerAt our disintegration.Haughty boys, naughty boys,Dear, dear, dear!Swooning with affectation…And as we are the reasonFor the “Nineties” being gay,We all wear a green carnation. »
         — Noël Coward, Bitter Sweet (1929)
         « Garçons jolis, garçons futésVous pouvez ricanerDe notre délitementGarçons hautains, garçons vilains,Ouh là là !Se pâmant avec affectation…Et comme nous sommes la raisonPour laquelle ces années 90 sont gaysNous portons tous un œillet vert. »
         — Bitter Sweet (1929)
-D'autres usages, à cette date, ont la même ambiguïté. L'Impossible Monsieur Bébé (1938) est considéré comme le premier film à utiliser le mot « gay » en référence à l'homosexualité : dans une scène où les vêtements de Cary Grant ont été envoyés au nettoyage, il doit porter une robe de chambre féminine garnie de plumes. Quand un autre personnage s'enquiert du pourquoi de cette tenue, il répond : « Parce que je deviens gay tout d'un coup ! »[13]. Cependant, étant donné que l'utilisation du mot pour désigner l'homosexualité est encore peu répandue à cette époque chez la plupart des spectateurs, la réplique peut aussi être interprétée comme signifiant « J'ai décidé de faire quelque chose de futile ». Il y a débat sur la signification de cette improvisation de Grant, la phrase ne figurant pas dans le script, notamment en raison des rumeurs concernant sa vie privée.
+D'autres usages, à cette date, ont la même ambiguïté. L'Impossible Monsieur Bébé (1938) est considéré comme le premier film à utiliser le mot « gay » en référence à l'homosexualité : dans une scène où les vêtements de Cary Grant ont été envoyés au nettoyage, il doit porter une robe de chambre féminine garnie de plumes. Quand un autre personnage s'enquiert du pourquoi de cette tenue, il répond : « Parce que je deviens gay tout d'un coup ! ». Cependant, étant donné que l'utilisation du mot pour désigner l'homosexualité est encore peu répandue à cette époque chez la plupart des spectateurs, la réplique peut aussi être interprétée comme signifiant « J'ai décidé de faire quelque chose de futile ». Il y a débat sur la signification de cette improvisation de Grant, la phrase ne figurant pas dans le script, notamment en raison des rumeurs concernant sa vie privée.
 Le mot continue de fait à être utilisé avec le sens dominant d'« insouciance », comme en témoigne The Gay Divorcee (La Joyeuse Divorcée), un film musical de 1934 sur un couple hétérosexuel. Le film portait à l'origine le titre The Gay Divorce (« Le Joyeux Divorce »), comme la pièce de théâtre dont il est tiré – et, détail amusant, dont l'auteur, Cole Porter, bien que marié était connu pour ses liaisons homosexuelles – mais le Code Hays avait estimé que si toute femme divorcée pouvait être « gay », il serait inconvenant qu'un divorce apparaisse ainsi.
 En Grande-Bretagne, où l'homosexualité masculine était illégale jusqu'au Sexual Offences Act de 1967, l'accusation publique d'une personne comme « homosexuelle » était considérée comme outrageante et synonyme d'activités criminelles graves. En outre, aucun des mots décrivant les aspects de l'homosexualité n'est jugé approprié pour la bonne société. En conséquence, un certain nombre d'euphémismes ironiques est utilisé comme allusion à une homosexualité présumée.
-Si la signification originelle du mot continue à être utilisée dans la culture populaire, notamment la chanson thème de la série télévisée d'animation des années 1960 Les Pierrafeu, où les spectateurs sont assurés d'« avoir un vieux temps gai », have a gay old time ou en 1966, la chanson des Herman's Hermits, No Milk Today (Top 10 au Royaume-Uni et Top 40 aux États-Unis), qui proclame « No milk today, it wasn't always so / The company was gay, we'd turn night into day »[14], le nouveau sens du mot « gay » est néanmoins suffisamment bien connu pour être utilisé en 1963 par Albert Ellis, dans son livre The Intelligent Woman's Guide to Man-Hunting. Dans la chanson I Feel Pretty de West Side Story (1961), Maria chante : « I feel pretty and witty and gay » ; l'évolution du sens de l'expression dans le langage courant a conduit, dans certaines versions, à modifier le texte en remplaçant « gay » par « bright »…
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Gay_(homosexualit%C3%A9)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gay_(homosexualit%C3%A9)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Variation sémantique</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'orientation sexuelle, le comportement et l'identification personnelle ne sont pas forcément aussi tranchées d'un individu à l'autre. Les termes gay et homosexuel sont synonymes[1]. Toutefois, certains considèrent que le terme gay est une question d'identité personnelle, alors que le terme homosexuel fait référence à l'orientation sexuelle[réf. souhaitée].
-Le terme hommes ayant des rapports sexuels avec des hommes (« HSH[15] ») est le terme médicale pour désigner les hommes s'engageant ou s'étant déjà engagés dans des relations sexuelles avec d'autres hommes, quelle que soit la définition qu'ils ont de leur orientation sexuelle[16]. En effet, pour de multiples raisons, nombre de ces hommes peuvent ne pas se définir comme homosexuels, bisexuels ou pansexuels, certains se qualifiant même d'« hétérosexuels »[17],[18] : les pratiques sexuelles peuvent ainsi diverger de l'identité dont on se réclame[19],[20].
-Usage péjoratif dans le monde anglophone
-Dans la langue anglaise, lorsqu'il est utilisé avec une attitude moqueuse, le terme « gay » peut être considéré péjoratif. Tout en conservant ses autres sens, il est également d'une « large utilisation courante » chez les jeunes, comme un terme général de dénigrement[21],[22], ce qui est encore assimilé par certains à de l'homophobie, même s'il perd tout caractère sexuel. Cette utilisation péjorative a ses origines à la fin des années 1970.
-En 2006, un auditeur porte plainte auprès du Board of Governors de la BBC après l'utilisation du mot dans ce sens par Chris Moyles dans son émission sur Radio 1 : parlant d'une sonnerie de téléphone qu'il déteste, il précise « I don't want that one, it's gay ». Le Conseil, indique que « le mot « gay », en plus d'être utilisé pour signifier « homosexuel » ou « sans souci », est aujourd'hui souvent utilisé pour signifier « pourri » ou « nul ». Il s'agit de la généralisation d'un usage courant chez les jeunes. Le Conseil lui-même « comprend le sens de ce mot dans ce contexte. […] S'adressant à une cible jeune, on attend de Moyles qu'il utilise les mêmes expressions et mots que ses auditeurs. […] Cela n'avait aucun caractère homophobe. » Le Conseil recommande néanmoins « la prudence quant à l'utilisation » du terme, celle-ci « pouvant être offensante pour certains auditeurs »[23].
-Les dirigeants de la BBC ont été fortement critiqués par le ministre de la Jeunesse, Kevin Brennan, qui a déclaré en réponse que « l'usage occasionnel d'un langage homophobe par les grands DJ de radio » est « trop souvent considéré comme d'inoffensives plaisanteries au lieu de l'insulte offensante que cela représente. […] Ignorer ce problème, c'est s'associer à eux. Fermer les yeux sur cette appellation occasionnelle, regarder ailleurs parce que c'est une option facile, est tout simplement intolérable[24]. »
-Peu de temps après l'incident Moyles, une campagne contre l'homophobie est lancée en Grande-Bretagne, avec le slogan « l'homophobie est gay », en jouant sur le double sens du mot « gay » dans la culture des jeunes[25].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Gay_(homosexualit%C3%A9)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gay_(homosexualit%C3%A9)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Symboles</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Divers symboles sont utilisés par et pour les hommes gays, dont de nombreux sont communs avec le reste des personnes lesbiennes, bisexuelles, trans et plus, notamment le drapeau arc-en-ciel LGBT. Davantage spécifiques aux gays sont par exemple le triangle rose, qui avait été utilisé dans les camps de concentration nazis puis a été repris par les militants contre le sida, et l'œillet vert. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Gay_(homosexualit%C3%A9)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gay_(homosexualit%C3%A9)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Identités et communautés</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au sein des différentes communautés gais dans le monde, il est commun que les hommes prennent des identités spécifiques comme notamment celle de la communauté bear ou de la communauté cuir.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Gay_(homosexualit%C3%A9)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gay_(homosexualit%C3%A9)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Socialité gay</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+Si la signification originelle du mot continue à être utilisée dans la culture populaire, notamment la chanson thème de la série télévisée d'animation des années 1960 Les Pierrafeu, où les spectateurs sont assurés d'« avoir un vieux temps gai », have a gay old time ou en 1966, la chanson des Herman's Hermits, No Milk Today (Top 10 au Royaume-Uni et Top 40 aux États-Unis), qui proclame « No milk today, it wasn't always so / The company was gay, we'd turn night into day », le nouveau sens du mot « gay » est néanmoins suffisamment bien connu pour être utilisé en 1963 par Albert Ellis, dans son livre The Intelligent Woman's Guide to Man-Hunting. Dans la chanson I Feel Pretty de West Side Story (1961), Maria chante : « I feel pretty and witty and gay » ; l'évolution du sens de l'expression dans le langage courant a conduit, dans certaines versions, à modifier le texte en remplaçant « gay » par « bright »…
+</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -675,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gay_(homosexualit%C3%A9)</t>
+          <t>Gay_(homosexualité)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -690,12 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Paternité</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les hommes gais ont des rapports divers à la paternité. Certains pères se rendent compte qu'ils sont gays au long de leur vie, après avoir eu des enfants dans une relation hétérosexuelle. Certains hommes gays choisissent de fonder des familles monoparentales, tandis que d'autres élèvent un ou des enfants au sein de leur couple, de leur trouple ou d'autres configurations familiales[26],[27].
+          <t>Variation sémantique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'orientation sexuelle, le comportement et l'identification personnelle ne sont pas forcément aussi tranchées d'un individu à l'autre. Les termes gay et homosexuel sont synonymes. Toutefois, certains considèrent que le terme gay est une question d'identité personnelle, alors que le terme homosexuel fait référence à l'orientation sexuelle[réf. souhaitée].
+Le terme hommes ayant des rapports sexuels avec des hommes (« HSH ») est le terme médicale pour désigner les hommes s'engageant ou s'étant déjà engagés dans des relations sexuelles avec d'autres hommes, quelle que soit la définition qu'ils ont de leur orientation sexuelle. En effet, pour de multiples raisons, nombre de ces hommes peuvent ne pas se définir comme homosexuels, bisexuels ou pansexuels, certains se qualifiant même d'« hétérosexuels », : les pratiques sexuelles peuvent ainsi diverger de l'identité dont on se réclame,.
 </t>
         </is>
       </c>
@@ -706,7 +746,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gay_(homosexualit%C3%A9)</t>
+          <t>Gay_(homosexualité)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -721,12 +761,21 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Masculinité</t>
+          <t>Variation sémantique</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les gays sont pris dans un rapport particulier aux identités de genre masculines, car la masculinité hégémonique est comprise comme nécessairement hétérosexuelle. L'efféminement est ainsi souvent traité comme une tare par la société, et les gays y sont particulièrement associés, à travers des stéréotypes comme celui de la folle. Certains hommes gays se retrouvent alors à revendiquer davantage de masculinité, tandis que d'autres assument la variance de genre[28],[29].
+          <t>Usage péjoratif dans le monde anglophone</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la langue anglaise, lorsqu'il est utilisé avec une attitude moqueuse, le terme « gay » peut être considéré péjoratif. Tout en conservant ses autres sens, il est également d'une « large utilisation courante » chez les jeunes, comme un terme général de dénigrement ce qui est encore assimilé par certains à de l'homophobie, même s'il perd tout caractère sexuel. Cette utilisation péjorative a ses origines à la fin des années 1970.
+En 2006, un auditeur porte plainte auprès du Board of Governors de la BBC après l'utilisation du mot dans ce sens par Chris Moyles dans son émission sur Radio 1 : parlant d'une sonnerie de téléphone qu'il déteste, il précise « I don't want that one, it's gay ». Le Conseil, indique que « le mot « gay », en plus d'être utilisé pour signifier « homosexuel » ou « sans souci », est aujourd'hui souvent utilisé pour signifier « pourri » ou « nul ». Il s'agit de la généralisation d'un usage courant chez les jeunes. Le Conseil lui-même « comprend le sens de ce mot dans ce contexte. […] S'adressant à une cible jeune, on attend de Moyles qu'il utilise les mêmes expressions et mots que ses auditeurs. […] Cela n'avait aucun caractère homophobe. » Le Conseil recommande néanmoins « la prudence quant à l'utilisation » du terme, celle-ci « pouvant être offensante pour certains auditeurs ».
+Les dirigeants de la BBC ont été fortement critiqués par le ministre de la Jeunesse, Kevin Brennan, qui a déclaré en réponse que « l'usage occasionnel d'un langage homophobe par les grands DJ de radio » est « trop souvent considéré comme d'inoffensives plaisanteries au lieu de l'insulte offensante que cela représente. […] Ignorer ce problème, c'est s'associer à eux. Fermer les yeux sur cette appellation occasionnelle, regarder ailleurs parce que c'est une option facile, est tout simplement intolérable. »
+Peu de temps après l'incident Moyles, une campagne contre l'homophobie est lancée en Grande-Bretagne, avec le slogan « l'homophobie est gay », en jouant sur le double sens du mot « gay » dans la culture des jeunes.
 </t>
         </is>
       </c>
@@ -737,7 +786,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gay_(homosexualit%C3%A9)</t>
+          <t>Gay_(homosexualité)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -752,12 +801,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rapport à la bisexualité</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs études ont cherché à déterminer si, parmi les hommes s'engageant dans des relations avec d'autres hommes, les relations étaient monosexuelles (homosexualité) ou bien s'ils maintenaient également des relations avec des femmes (bisexualité, pansexualité). Les résultats varient grandement selon les régions et les cultures. En Europe et aux États-Unis, les bisexuels sont largement majoritaires, tout comme dans certains pays africains comme le Sénégal (un des rares pays africains à collecter des données sur ce sujet), si l'on s'intéresse aux comportements sexuels sur plusieurs années. Lorsque la durée de la période étudiée est plus limitée (par exemple les douze derniers mois), la part de comportements bisexuels tend à baisser, alors qu'augmente celle des comportements homosexuels[19]. En Chine, seuls la moitié des HSH reconnaissent une relation hétérosexuelle[16]. D'après des enquêtes menées dans certains lieux de rencontre homosexuels d'Europe de l'Est, seuls un tiers des sondés déclarent avoir déjà maintenu une relation sexuelle hétérosexuelle[16].
+          <t>Symboles</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Divers symboles sont utilisés par et pour les hommes gays, dont de nombreux sont communs avec le reste des personnes lesbiennes, bisexuelles, trans et plus, notamment le drapeau arc-en-ciel LGBT. Davantage spécifiques aux gays sont par exemple le triangle rose, qui avait été utilisé dans les camps de concentration nazis puis a été repris par les militants contre le sida, et l'œillet vert. 
 </t>
         </is>
       </c>
@@ -768,7 +819,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gay_(homosexualit%C3%A9)</t>
+          <t>Gay_(homosexualité)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -783,13 +834,175 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Identités et communautés</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au sein des différentes communautés gais dans le monde, il est commun que les hommes prennent des identités spécifiques comme notamment celle de la communauté bear ou de la communauté cuir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gay_(homosexualité)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gay_(homosexualit%C3%A9)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Socialité gay</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gay_(homosexualité)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gay_(homosexualit%C3%A9)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Paternité</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hommes gais ont des rapports divers à la paternité. Certains pères se rendent compte qu'ils sont gays au long de leur vie, après avoir eu des enfants dans une relation hétérosexuelle. Certains hommes gays choisissent de fonder des familles monoparentales, tandis que d'autres élèvent un ou des enfants au sein de leur couple, de leur trouple ou d'autres configurations familiales,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Gay_(homosexualité)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gay_(homosexualit%C3%A9)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Masculinité</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les gays sont pris dans un rapport particulier aux identités de genre masculines, car la masculinité hégémonique est comprise comme nécessairement hétérosexuelle. L'efféminement est ainsi souvent traité comme une tare par la société, et les gays y sont particulièrement associés, à travers des stéréotypes comme celui de la folle. Certains hommes gays se retrouvent alors à revendiquer davantage de masculinité, tandis que d'autres assument la variance de genre,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Gay_(homosexualité)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gay_(homosexualit%C3%A9)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Rapport à la bisexualité</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs études ont cherché à déterminer si, parmi les hommes s'engageant dans des relations avec d'autres hommes, les relations étaient monosexuelles (homosexualité) ou bien s'ils maintenaient également des relations avec des femmes (bisexualité, pansexualité). Les résultats varient grandement selon les régions et les cultures. En Europe et aux États-Unis, les bisexuels sont largement majoritaires, tout comme dans certains pays africains comme le Sénégal (un des rares pays africains à collecter des données sur ce sujet), si l'on s'intéresse aux comportements sexuels sur plusieurs années. Lorsque la durée de la période étudiée est plus limitée (par exemple les douze derniers mois), la part de comportements bisexuels tend à baisser, alors qu'augmente celle des comportements homosexuels. En Chine, seuls la moitié des HSH reconnaissent une relation hétérosexuelle. D'après des enquêtes menées dans certains lieux de rencontre homosexuels d'Europe de l'Est, seuls un tiers des sondés déclarent avoir déjà maintenu une relation sexuelle hétérosexuelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Gay_(homosexualité)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gay_(homosexualit%C3%A9)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Risques sanitaires</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez les hommes qui ont des rapports sexuels anaux avec d'autres hommes, les rapports anaux sans port de préservatif sont considérés comme à fort risque de transmission d'IST (ce qui est également le cas pour les sodomies hétérosexuelles). Une personne qui insère son pénis dans un partenaire infecté est à risque car les maladies sexuellement transmissibles (MST/IST) peuvent pénétrer par l'urètre ou par de petites coupures, écorchures ou plaies à vif sur le pénis. En outre, les préservatifs sont plus susceptibles de se rompre lors de rapports sexuels anaux que lors de rapports vaginaux. Ainsi, même avec un préservatif, le sexe anal peut présenter des risques[30],[31]
-En 2007, la plus grande proportion de diagnostics de VIH/sida chez les adultes et les adolescents aux États-Unis était constituée d'hommes qui ont eu des rapports sexuels avec des hommes (HSH). Bien que cette catégorie ne représente qu’entre 3 et 6 % de la population américaine, elle représentait 53 % de l'ensemble des diagnostics positifs de sida[32].
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les hommes qui ont des rapports sexuels anaux avec d'autres hommes, les rapports anaux sans port de préservatif sont considérés comme à fort risque de transmission d'IST (ce qui est également le cas pour les sodomies hétérosexuelles). Une personne qui insère son pénis dans un partenaire infecté est à risque car les maladies sexuellement transmissibles (MST/IST) peuvent pénétrer par l'urètre ou par de petites coupures, écorchures ou plaies à vif sur le pénis. En outre, les préservatifs sont plus susceptibles de se rompre lors de rapports sexuels anaux que lors de rapports vaginaux. Ainsi, même avec un préservatif, le sexe anal peut présenter des risques,
+En 2007, la plus grande proportion de diagnostics de VIH/sida chez les adultes et les adolescents aux États-Unis était constituée d'hommes qui ont eu des rapports sexuels avec des hommes (HSH). Bien que cette catégorie ne représente qu’entre 3 et 6 % de la population américaine, elle représentait 53 % de l'ensemble des diagnostics positifs de sida.
 </t>
         </is>
       </c>
